--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Cxcl12-Cd4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Cxcl12-Cd4.xlsx
@@ -534,46 +534,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>109.026058</v>
+        <v>160.9723563333334</v>
       </c>
       <c r="H2">
-        <v>327.078174</v>
+        <v>482.917069</v>
       </c>
       <c r="I2">
-        <v>0.3049840938689738</v>
+        <v>0.3931645655589854</v>
       </c>
       <c r="J2">
-        <v>0.3049840938689738</v>
+        <v>0.3931645655589854</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.539832</v>
+        <v>0.06686833333333334</v>
       </c>
       <c r="N2">
-        <v>1.619496</v>
+        <v>0.200605</v>
       </c>
       <c r="O2">
-        <v>0.3224687287194008</v>
+        <v>0.05567274787007094</v>
       </c>
       <c r="P2">
-        <v>0.3224687287194007</v>
+        <v>0.05567274787007093</v>
       </c>
       <c r="Q2">
-        <v>58.85575494225599</v>
+        <v>10.76395318074945</v>
       </c>
       <c r="R2">
-        <v>529.701794480304</v>
+        <v>96.87557862674501</v>
       </c>
       <c r="S2">
-        <v>0.09834783302956637</v>
+        <v>0.02188855172981137</v>
       </c>
       <c r="T2">
-        <v>0.09834783302956636</v>
+        <v>0.02188855172981137</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>109.026058</v>
+        <v>160.9723563333334</v>
       </c>
       <c r="H3">
-        <v>327.078174</v>
+        <v>482.917069</v>
       </c>
       <c r="I3">
-        <v>0.3049840938689738</v>
+        <v>0.3931645655589854</v>
       </c>
       <c r="J3">
-        <v>0.3049840938689738</v>
+        <v>0.3931645655589854</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>3.102758</v>
       </c>
       <c r="O3">
-        <v>0.6178109904463799</v>
+        <v>0.8610905203551533</v>
       </c>
       <c r="P3">
-        <v>0.6178109904463799</v>
+        <v>0.8610905203551533</v>
       </c>
       <c r="Q3">
-        <v>112.7604912226546</v>
+        <v>166.4860887973669</v>
       </c>
       <c r="R3">
-        <v>1014.844421003892</v>
+        <v>1498.374799176302</v>
       </c>
       <c r="S3">
-        <v>0.1884225251035824</v>
+        <v>0.3385502803423945</v>
       </c>
       <c r="T3">
-        <v>0.1884225251035824</v>
+        <v>0.3385502803423945</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>109.026058</v>
+        <v>160.9723563333334</v>
       </c>
       <c r="H4">
-        <v>327.078174</v>
+        <v>482.917069</v>
       </c>
       <c r="I4">
-        <v>0.3049840938689738</v>
+        <v>0.3931645655589854</v>
       </c>
       <c r="J4">
-        <v>0.3049840938689738</v>
+        <v>0.3931645655589854</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -682,22 +682,22 @@
         <v>0.299926</v>
       </c>
       <c r="O4">
-        <v>0.05972028083421942</v>
+        <v>0.08323673177477579</v>
       </c>
       <c r="P4">
-        <v>0.05972028083421941</v>
+        <v>0.08323673177477578</v>
       </c>
       <c r="Q4">
-        <v>10.89991649056933</v>
+        <v>16.09326498187712</v>
       </c>
       <c r="R4">
-        <v>98.09924841512401</v>
+        <v>144.839384836894</v>
       </c>
       <c r="S4">
-        <v>0.01821373573582505</v>
+        <v>0.03272573348677952</v>
       </c>
       <c r="T4">
-        <v>0.01821373573582505</v>
+        <v>0.03272573348677951</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,40 +726,40 @@
         <v>269.931655</v>
       </c>
       <c r="I5">
-        <v>0.2516978134001918</v>
+        <v>0.2197635343237224</v>
       </c>
       <c r="J5">
-        <v>0.2516978134001917</v>
+        <v>0.2197635343237224</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.539832</v>
+        <v>0.06686833333333334</v>
       </c>
       <c r="N5">
-        <v>1.619496</v>
+        <v>0.200605</v>
       </c>
       <c r="O5">
-        <v>0.3224687287194008</v>
+        <v>0.05567274787007094</v>
       </c>
       <c r="P5">
-        <v>0.3224687287194007</v>
+        <v>0.05567274787007093</v>
       </c>
       <c r="Q5">
-        <v>48.57258172731999</v>
+        <v>6.016626627919444</v>
       </c>
       <c r="R5">
-        <v>437.15323554588</v>
+        <v>54.149639651275</v>
       </c>
       <c r="S5">
-        <v>0.0811646739086128</v>
+        <v>0.01223483983744028</v>
       </c>
       <c r="T5">
-        <v>0.08116467390861277</v>
+        <v>0.01223483983744028</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>269.931655</v>
       </c>
       <c r="I6">
-        <v>0.2516978134001918</v>
+        <v>0.2197635343237224</v>
       </c>
       <c r="J6">
-        <v>0.2516978134001917</v>
+        <v>0.2197635343237224</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>3.102758</v>
       </c>
       <c r="O6">
-        <v>0.6178109904463799</v>
+        <v>0.8610905203551533</v>
       </c>
       <c r="P6">
-        <v>0.6178109904463799</v>
+        <v>0.8610905203551533</v>
       </c>
       <c r="Q6">
         <v>93.05917800049886</v>
@@ -818,10 +818,10 @@
         <v>837.5326020044898</v>
       </c>
       <c r="S6">
-        <v>0.1555016753899606</v>
+        <v>0.1892362961259017</v>
       </c>
       <c r="T6">
-        <v>0.1555016753899605</v>
+        <v>0.1892362961259017</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>269.931655</v>
       </c>
       <c r="I7">
-        <v>0.2516978134001918</v>
+        <v>0.2197635343237224</v>
       </c>
       <c r="J7">
-        <v>0.2516978134001917</v>
+        <v>0.2197635343237224</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -868,10 +868,10 @@
         <v>0.299926</v>
       </c>
       <c r="O7">
-        <v>0.05972028083421942</v>
+        <v>0.08323673177477579</v>
       </c>
       <c r="P7">
-        <v>0.05972028083421941</v>
+        <v>0.08323673177477578</v>
       </c>
       <c r="Q7">
         <v>8.995502395281111</v>
@@ -880,10 +880,10 @@
         <v>80.95952155753</v>
       </c>
       <c r="S7">
-        <v>0.01503146410161841</v>
+        <v>0.01829239836038041</v>
       </c>
       <c r="T7">
-        <v>0.0150314641016184</v>
+        <v>0.01829239836038041</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,40 +912,40 @@
         <v>475.433556</v>
       </c>
       <c r="I8">
-        <v>0.4433180927308344</v>
+        <v>0.3870719001172923</v>
       </c>
       <c r="J8">
-        <v>0.4433180927308344</v>
+        <v>0.3870719001172923</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.539832</v>
+        <v>0.06686833333333334</v>
       </c>
       <c r="N8">
-        <v>1.619496</v>
+        <v>0.200605</v>
       </c>
       <c r="O8">
-        <v>0.3224687287194008</v>
+        <v>0.05567274787007094</v>
       </c>
       <c r="P8">
-        <v>0.3224687287194007</v>
+        <v>0.05567274787007093</v>
       </c>
       <c r="Q8">
-        <v>85.55141580086399</v>
+        <v>10.59714983348667</v>
       </c>
       <c r="R8">
-        <v>769.9627422077759</v>
+        <v>95.37434850138</v>
       </c>
       <c r="S8">
-        <v>0.1429562217812216</v>
+        <v>0.02154935630281929</v>
       </c>
       <c r="T8">
-        <v>0.1429562217812216</v>
+        <v>0.0215493563028193</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>475.433556</v>
       </c>
       <c r="I9">
-        <v>0.4433180927308344</v>
+        <v>0.3870719001172923</v>
       </c>
       <c r="J9">
-        <v>0.4433180927308344</v>
+        <v>0.3870719001172923</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>3.102758</v>
       </c>
       <c r="O9">
-        <v>0.6178109904463799</v>
+        <v>0.8610905203551533</v>
       </c>
       <c r="P9">
-        <v>0.6178109904463799</v>
+        <v>0.8610905203551533</v>
       </c>
       <c r="Q9">
         <v>163.9061410386053</v>
@@ -1004,10 +1004,10 @@
         <v>1475.155269347448</v>
       </c>
       <c r="S9">
-        <v>0.2738867899528369</v>
+        <v>0.3333039438868571</v>
       </c>
       <c r="T9">
-        <v>0.2738867899528369</v>
+        <v>0.3333039438868572</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>475.433556</v>
       </c>
       <c r="I10">
-        <v>0.4433180927308344</v>
+        <v>0.3870719001172923</v>
       </c>
       <c r="J10">
-        <v>0.4433180927308344</v>
+        <v>0.3870719001172923</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,10 +1054,10 @@
         <v>0.299926</v>
       </c>
       <c r="O10">
-        <v>0.05972028083421942</v>
+        <v>0.08323673177477579</v>
       </c>
       <c r="P10">
-        <v>0.05972028083421941</v>
+        <v>0.08323673177477578</v>
       </c>
       <c r="Q10">
         <v>15.84387607965067</v>
@@ -1066,10 +1066,10 @@
         <v>142.594884716856</v>
       </c>
       <c r="S10">
-        <v>0.02647508099677596</v>
+        <v>0.03221859992761586</v>
       </c>
       <c r="T10">
-        <v>0.02647508099677595</v>
+        <v>0.03221859992761586</v>
       </c>
     </row>
   </sheetData>
